--- a/biology/Botanique/Dracunculus_vulgaris/Dracunculus_vulgaris.xlsx
+++ b/biology/Botanique/Dracunculus_vulgaris/Dracunculus_vulgaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arum dragon, Serpentaire commune
 Dracunculus vulgaris est une espèce de plantes de la famille des Araceae, proche du genre Arum.
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De croissance rapide, la plante a une taille de 0,6 à 1,2 m de haut[1]. C'est une plante vivace herbacée à racine tubéreuse dont le feuillage disparait après la floraison (un géophyte).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De croissance rapide, la plante a une taille de 0,6 à 1,2 m de haut. C'est une plante vivace herbacée à racine tubéreuse dont le feuillage disparait après la floraison (un géophyte).
 Elle présente une grosse tige mouchetée de pourpre avec plusieurs feuilles digitées, pédatiséquées, incurvées, à 9-13 lobes à pétiole engainant. Le limbe est tacheté de blanc le long des nervures qui sont vert clair.
-Une unique inflorescence de 30 à 60 cm[2] (voire plus) apparaît au printemps ou au début de l'été suivant le climat. La spathe est rouge pourpre à l'intérieur et verte à l'extérieur ; elle entoure le spadice pourpre presque noir portant les fleurs unisexuées dans la partie inférieure et un long appendice stérile au-dessus. La base de la spathe forme une chambre florale contenant les fleurs femelles en bas et les fleurs mâles au-dessus.
+Une unique inflorescence de 30 à 60 cm (voire plus) apparaît au printemps ou au début de l'été suivant le climat. La spathe est rouge pourpre à l'intérieur et verte à l'extérieur ; elle entoure le spadice pourpre presque noir portant les fleurs unisexuées dans la partie inférieure et un long appendice stérile au-dessus. La base de la spathe forme une chambre florale contenant les fleurs femelles en bas et les fleurs mâles au-dessus.
 Comme beaucoup d'aracées, l'inflorescence dégage une odeur de viande en décomposition pour attirer les insectes pollinisateurs, principalement les mouches.
 Les fruits sont des baies rouge-orangé à maturité, toxiques.
 </t>
@@ -548,9 +562,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire de l'Est de l'Europe méditerranéenne, de l'Albanie à la Crète et la Turquie. Elle est naturalisée plus à l'ouest, notamment en Italie, dans le Midi de la France et en Corse, ainsi qu'en Afrique du Nord[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de l'Est de l'Europe méditerranéenne, de l'Albanie à la Crète et la Turquie. Elle est naturalisée plus à l'ouest, notamment en Italie, dans le Midi de la France et en Corse, ainsi qu'en Afrique du Nord.
 Elle pousse naturellement aussi bien en terrain aride (maquis, garrigue) que sous le couvert de feuillus.
 </t>
         </is>
@@ -580,17 +596,19 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme beaucoup d'Aracées, le Dracunculus vulgaris produit de la chaleur au niveau de son inflorescence au moment de la floraison par un processus métabolique nommé thermogenèse[4]. Les fleurs femelles sont matures avant les fleurs mâles (protogynie) et sont fécondées par le pollen transporté par des insectes qui pénètrent dans la chambre florale.
-L'anthèse se fait sur deux jours[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme beaucoup d'Aracées, le Dracunculus vulgaris produit de la chaleur au niveau de son inflorescence au moment de la floraison par un processus métabolique nommé thermogenèse. Les fleurs femelles sont matures avant les fleurs mâles (protogynie) et sont fécondées par le pollen transporté par des insectes qui pénètrent dans la chambre florale.
+L'anthèse se fait sur deux jours :
 le début de l'ouverture de la spathe se situe une première nuit quand la température de la chambre florale augmente (3,7 °C de plus que la température ambiante)
 le premier jour, l'appendice (extrémité du spadice) dégage de la chaleur et des odeurs
 la seconde nuit, la température de la chambre florale augmente à nouveau (8,4 °C de plus que la température ambiante), l'appendice n'émet plus de chaleur ni d'odeur
 le second jour, la séquence se termine, les insectes s'échappent de la chambre
 Le premier jour les odeurs de charogne émises par l'appendice attirent un grand nombre de mouches et de coléoptères qui se posent sur la spathe. Les coléoptères en général glissent et tombent dans la chambre florale et ne peuvent en sortir avant le second jour. S'ils sont porteurs de pollen venant d'une autre fleur, ils assurent une fécondation croisée des fleurs femelles. Celles-ci ne peuvent d'ailleurs être fécondées que ce jour-là. Le lendemain, les insectes, dans leurs efforts pour sortir, se couvrent de pollen que les fleurs mâles ont alors relâché.
 L'appendice et la chambre florale s'échauffent de manière différente. Alors que la consommation d'oxygène de l'appendice est directement liée à la température ambiante, pour la chambre florale la relation est inverse. La température de la chambre la seconde nuit est maintenue à 18 °C.
-Pour Seymour &amp; Schultze-Motel[4], la production de chaleur de l'appendice est liée seulement à la production d'odeur pour attirer les pollinisateurs, alors que le réchauffement de la chambre florale est directement lié au maintien de l'activité des insectes.
+Pour Seymour &amp; Schultze-Motel, la production de chaleur de l'appendice est liée seulement à la production d'odeur pour attirer les pollinisateurs, alors que le réchauffement de la chambre florale est directement lié au maintien de l'activité des insectes.
 </t>
         </is>
       </c>
@@ -619,7 +637,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dracunculus vulgaris est cultivé pour l'ornement.
 			Les feuilles
@@ -656,7 +676,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le médecin grec du Ier siècle, Dioscoride, donne une description du drakontia qui peut désigner soit le Dracunculus vulgaris soit un gouet (Arum italicum ou Arum maculatum). Ces plantes sont efficaces pour traiter les polypes dans le nez, les spasmes, la toux, les fractures, les catarrhes, etc.
 Le naturaliste romain, de la même époque, Pline l'Ancien, rapporte, comme souvent, des croyances populaires. Pour lui, « la plante dracunculus (arum serpentaria) est marquée des mêmes couleurs que les vipères ».
@@ -688,7 +710,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Arum dracunculus L.
 Dracunculus creticus Schott
